--- a/realpgm_networks/21.MaxEmb ConvNet 240 Files/trainingSeqConv.xlsx
+++ b/realpgm_networks/21.MaxEmb ConvNet 240 Files/trainingSeqConv.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DAAACUMENTS\Research\3_NAECON2018\realpgm_networks\21.MaxEmb ConvNet 240 Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Repos\Research\3_NAECON_2018\realpgm_networks\21.MaxEmb ConvNet 240 Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F9E098-0B06-4DBA-829B-456E4DAF4038}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="trainingSeqConv" sheetId="1" r:id="rId1"/>
@@ -27,22 +28,22 @@
     <t>epoch</t>
   </si>
   <si>
-    <t>Training Accuracy</t>
-  </si>
-  <si>
-    <t>Validation Accuracy</t>
-  </si>
-  <si>
     <t>Training Loss</t>
   </si>
   <si>
     <t>Validation Loss</t>
   </si>
+  <si>
+    <t xml:space="preserve">Training </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validation </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -581,16 +582,16 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="101"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="1"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -615,12 +616,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Accuracy</a:t>
+              <a:t>Accuracy per Epoch</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -665,7 +665,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Training Accuracy</c:v>
+                  <c:v>Training </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -673,7 +673,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -682,6 +684,165 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>trainingSeqConv!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>trainingSeqConv!$B$2:$B$51</c:f>
@@ -842,6 +1003,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0341-40CE-98D9-472A83216040}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -852,7 +1018,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Validation Accuracy</c:v>
+                  <c:v>Validation </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -860,7 +1026,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="dk1">
+                  <a:tint val="55000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -869,6 +1037,165 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>trainingSeqConv!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>trainingSeqConv!$D$2:$D$51</c:f>
@@ -1029,6 +1356,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0341-40CE-98D9-472A83216040}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1049,18 +1381,14 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
+            <a:noFill/>
             <a:round/>
           </a:ln>
           <a:effectLst/>
@@ -1090,6 +1418,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="5"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -1103,10 +1432,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1145,20 +1471,21 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="523100280"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="1"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
-          <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1197,12 +1524,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1226,7 +1548,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1265,7 +1587,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1487,6 +1808,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B798-490F-8782-423D38C997E2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1674,6 +2000,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B798-490F-8782-423D38C997E2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1803,7 +2134,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1871,41 +2201,28 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
   <cs:variation>
-    <a:lumMod val="60000"/>
+    <a:tint val="88500"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
+    <a:tint val="55000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80000"/>
+    <a:tint val="75000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
+    <a:tint val="98500"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="50000"/>
+    <a:tint val="30000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
+    <a:tint val="60000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
+    <a:tint val="80000"/>
   </cs:variation>
 </cs:colorStyle>
 </file>
@@ -2986,20 +3303,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
+      <xdr:colOff>83820</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3016,20 +3339,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3309,11 +3638,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" activeCellId="1" sqref="C1:C1048576 E1:E1048576"/>
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3323,16 +3652,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
       <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -4309,7 +4638,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F62"/>
+  <autoFilter ref="A1:F62" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
